--- a/Studied papers.xlsx
+++ b/Studied papers.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzq-712\OneDrive\Researches\成果\DOING (7)\R5-U-静态分析警报研究综述-TOSEM-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="327" documentId="14_{B4AC24A7-F35D-4E57-A648-548DF54123B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{691494E0-EE8E-4CA3-8DAD-5D82499B8D3A}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="14_{25A9FBC0-60AB-41E4-9876-620F159D4A12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3F6BEC2E-81E4-4960-8B60-F0F523A64D88}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Snowballing(119)" sheetId="5" r:id="rId1"/>
+    <sheet name="Snowballing(118)" sheetId="5" r:id="rId1"/>
     <sheet name="Manual Check (60)" sheetId="4" r:id="rId2"/>
     <sheet name="Original Retrieval (244)" sheetId="2" r:id="rId3"/>
     <sheet name="Summary" sheetId="6" r:id="rId4"/>
+    <sheet name="SATs" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12607" uniqueCount="3127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12984" uniqueCount="3272">
   <si>
     <t>Publication Type</t>
   </si>
@@ -8331,13 +8332,6 @@
     <t>Evaluating static analysis defect warnings on production software</t>
   </si>
   <si>
-    <t>Using groupings of static analysis alerts to identify files likely to contain field failures</t>
-  </si>
-  <si>
-    <t>Sherriff et al.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ARES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8604,15 +8598,6 @@
     <t>A framework for combining and ranking static analysis tool findings based on tool performance statistics</t>
   </si>
   <si>
-    <t>TSE</t>
-  </si>
-  <si>
-    <t>Do et al.</t>
-  </si>
-  <si>
-    <t>Explaining static analysis with rule graphs</t>
-  </si>
-  <si>
     <t>Analyzing false positive source code vulnerabilities using static analysis tools</t>
   </si>
   <si>
@@ -8880,9 +8865,6 @@
     <t>[16]</t>
   </si>
   <si>
-    <t>[17]</t>
-  </si>
-  <si>
     <t>[18]</t>
   </si>
   <si>
@@ -9007,9 +8989,6 @@
   </si>
   <si>
     <t>[59]</t>
-  </si>
-  <si>
-    <t>[60]</t>
   </si>
   <si>
     <t>[61]</t>
@@ -9605,14 +9584,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grammar analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model checking detection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>User study</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9680,10 +9651,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CBMC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Commercial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9692,10 +9659,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TCS ECA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FindBugs/PMD/Jlint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9760,27 +9723,636 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Juliet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FindBugs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FingBugs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FindBugs/CheckStyle/PMD/SonarQube/ESLint/RuboCop/Pylint/JSHint/Flake8/Checkmarx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Polyspace/TCS</t>
+    <t>Rats/Its4/FlawFinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWARE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polyspace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polyspace/Coverity/Klocwork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jlint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raccoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindBugs/PMD/SmallLint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TECA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parfait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindBugs/Jlint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA/CPPcheck/Frama-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindBugs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA/Cppcheck/FlawFinder/Rats/Polyspace/Coverity/PVS-Studio/Parasoft C/C++ test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindBugs/PMD/SonarQube/Fortify/Brakeman/PVS-Studio/Veracode/FxCop/Coverity/Klocwork/Visual Studio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosecheckers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phpSAFE/RIPS/WAP/Pixy/WeVerca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA/Cppcheck/Frama-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindBugs/PMD//CheckStyle/ESLint/SonarQube/PyLint/Flake8/RubpCop/JSHint/Checkmarx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cppcheck/Rosecheckers/GCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppScan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindBugs/PMD/CheckStyle/ESCJava/JCSC/Hammurapi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Junior et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarningsFIX: A recommendation system for prioritizing warnings generated by automated static analyzers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBQS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cppcheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JLint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckStyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntelliJ IDEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polyspace/TECA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlawFinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrorProne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Its4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xylem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallLint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lint4J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESLint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checkmarx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSHint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVS-Studio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parasoft C/C++ test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brakeman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FxCop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pylint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flake8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESCJava</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hammurapi</t>
+  </si>
+  <si>
+    <t>phpSAFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pixy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeVerca</t>
+  </si>
+  <si>
+    <t>Visual Studio</t>
+  </si>
+  <si>
+    <t>PHP_CodeSniffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top 10 SATs (12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anonymous SATs (9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/C++ C#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smalltalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>C#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindBugs/PMD/CheckStyle/Cppcheck/PHP_CodeSniffer/FxCop/Pylint/Brakeman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/C++</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>SmallTalk</t>
+  </si>
+  <si>
+    <t>Tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freq.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>Kloclwork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[60]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Contracts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindBugs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Airac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codesurfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jlint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ist4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlawFinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xylem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckStyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESCJava</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hammurapi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Astree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolySpace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAT.NET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coverity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raccoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TECA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBUGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parfait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosecheckers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fortify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lint4J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPARROW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cppcheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frama-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phpSAFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pixy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeVerca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cnc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Klocwork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Contracts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppScan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Figure 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indicators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDRC</t>
+  </si>
+  <si>
+    <t>FDRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision/Recall</t>
+  </si>
+  <si>
+    <t>Precision/Recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision/Recall/Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision/Recall/F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy/Times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision/Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision/Recall/Accuracy/F1</t>
+  </si>
+  <si>
+    <t>Precision/Recall/Accuracy/F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision/Recall/F1/AUC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall/AUC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9866,7 +10438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9897,6 +10469,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10211,10 +10786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3A7AED-2407-459D-93C6-FE73C1160121}">
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10225,13 +10800,13 @@
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="101.85546875" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="19" customWidth="1"/>
+    <col min="7" max="9" width="13.42578125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>2856</v>
+        <v>2851</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>2614</v>
@@ -10249,15 +10824,21 @@
         <v>2613</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3069</v>
+        <v>3062</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>3071</v>
+        <v>3248</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3249</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3064</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>2859</v>
+        <v>2854</v>
       </c>
       <c r="B2" s="11">
         <v>2003</v>
@@ -10269,21 +10850,27 @@
         <v>2717</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2855</v>
+        <v>2850</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>2566</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>3072</v>
+        <v>3252</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>3251</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>3065</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>2860</v>
+        <v>2855</v>
       </c>
       <c r="B3" s="12">
         <v>2004</v>
@@ -10295,21 +10882,27 @@
         <v>2717</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>2804</v>
+        <v>2799</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>2805</v>
+        <v>2800</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>3073</v>
+        <v>3252</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>3251</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>3066</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>2861</v>
+        <v>2856</v>
       </c>
       <c r="B4" s="11">
         <v>2005</v>
@@ -10327,15 +10920,21 @@
         <v>2566</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>3074</v>
+        <v>3252</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>3251</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>3067</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>2862</v>
+        <v>2857</v>
       </c>
       <c r="B5" s="11">
         <v>2005</v>
@@ -10353,15 +10952,21 @@
         <v>2566</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>3075</v>
+        <v>3253</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>3254</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>3068</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>2863</v>
+        <v>2858</v>
       </c>
       <c r="B6" s="11">
         <v>2005</v>
@@ -10373,21 +10978,27 @@
         <v>2618</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>2806</v>
+        <v>2801</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>3075</v>
+        <v>3253</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>3254</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>3068</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>2864</v>
+        <v>2859</v>
       </c>
       <c r="B7" s="12">
         <v>2006</v>
@@ -10396,27 +11007,31 @@
         <v>2603</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>2807</v>
+        <v>2802</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>2591</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>3076</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>3082</v>
-      </c>
+        <v>3253</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>3254</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>3069</v>
+      </c>
+      <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>2865</v>
+        <v>2860</v>
       </c>
       <c r="B8" s="12">
         <v>2006</v>
@@ -10434,18 +11049,22 @@
         <v>2567</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>3063</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>3253</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>3254</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>3070</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>3077</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>3083</v>
-      </c>
+      <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>2866</v>
+        <v>2861</v>
       </c>
       <c r="B9" s="12">
         <v>2006</v>
@@ -10463,15 +11082,21 @@
         <v>2571</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>3075</v>
+        <v>3063</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>3254</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>3068</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>2867</v>
+        <v>2862</v>
       </c>
       <c r="B10" s="11">
         <v>2007</v>
@@ -10489,15 +11114,17 @@
         <v>2570</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>3078</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>3079</v>
+        <v>3071</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>2868</v>
+        <v>2863</v>
       </c>
       <c r="B11" s="11">
         <v>2007</v>
@@ -10515,15 +11142,19 @@
         <v>2568</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>3071</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>3079</v>
+        <v>3063</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>2869</v>
+        <v>2864</v>
       </c>
       <c r="B12" s="11">
         <v>2007</v>
@@ -10541,15 +11172,21 @@
         <v>2714</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>3079</v>
+        <v>3252</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>3251</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>2870</v>
+        <v>2865</v>
       </c>
       <c r="B13" s="11">
         <v>2007</v>
@@ -10567,15 +11204,17 @@
         <v>2570</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>3080</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>3079</v>
+        <v>3071</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>2871</v>
+        <v>2866</v>
       </c>
       <c r="B14" s="11">
         <v>2007</v>
@@ -10593,15 +11232,21 @@
         <v>2588</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>3081</v>
+        <v>3252</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>3256</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>3074</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>2872</v>
+        <v>2867</v>
       </c>
       <c r="B15" s="11">
         <v>2007</v>
@@ -10613,21 +11258,27 @@
         <v>2620</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>2808</v>
+        <v>2803</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>2606</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>3081</v>
+        <v>3063</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>3254</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>3074</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>2873</v>
+        <v>2868</v>
       </c>
       <c r="B16" s="11">
         <v>2007</v>
@@ -10636,22 +11287,30 @@
         <v>2603</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>2729</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>2730</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>2731</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>2732</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>2733</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>3071</v>
-      </c>
-      <c r="H16" s="4"/>
+        <v>3063</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>3112</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>2874</v>
+        <v>2869</v>
       </c>
       <c r="B17" s="11">
         <v>2007</v>
@@ -10660,374 +11319,448 @@
         <v>2603</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>2572</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>3084</v>
+        <v>3075</v>
       </c>
       <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>3113</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>2875</v>
+        <v>2870</v>
       </c>
       <c r="B18" s="11">
         <v>2007</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2603</v>
+        <v>56</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>2720</v>
+        <v>2622</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>2719</v>
+        <v>2623</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>2588</v>
+        <v>2569</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>3080</v>
+        <v>3071</v>
       </c>
       <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>3068</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>2876</v>
-      </c>
-      <c r="B19" s="11">
-        <v>2007</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>2622</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>2623</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>2569</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>3078</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>3075</v>
+    <row r="19" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B19" s="12">
+        <v>2008</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>2843</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>2842</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>2841</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>3063</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>3090</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>2877</v>
+        <v>2872</v>
       </c>
       <c r="B20" s="12">
         <v>2008</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>2827</v>
+        <v>71</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>2848</v>
+        <v>2786</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>2847</v>
+        <v>2784</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>2846</v>
+        <v>2785</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>3099</v>
+        <v>3071</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>3115</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>2878</v>
+        <v>2873</v>
       </c>
       <c r="B21" s="12">
         <v>2008</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>2788</v>
+        <v>2621</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>2786</v>
+        <v>2629</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>2787</v>
+        <v>2572</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>3078</v>
+        <v>3071</v>
       </c>
       <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>3072</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="B22" s="12">
         <v>2008</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>56</v>
+        <v>2812</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>2621</v>
+        <v>2827</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>2629</v>
+        <v>2828</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>2572</v>
+        <v>2826</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>3078</v>
+        <v>3063</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>3079</v>
+        <v>3253</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>3114</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>2880</v>
+        <v>2875</v>
       </c>
       <c r="B23" s="12">
         <v>2008</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>2817</v>
+        <v>56</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>2832</v>
+        <v>2635</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>2833</v>
+        <v>2637</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>2831</v>
+        <v>2636</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H23" s="6"/>
+        <v>3063</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>3254</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>3116</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>2881</v>
+        <v>2876</v>
       </c>
       <c r="B24" s="12">
         <v>2008</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>56</v>
+        <v>2603</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>2635</v>
+        <v>2628</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>2637</v>
+        <v>2608</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>2636</v>
+        <v>2568</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H24" s="6"/>
+        <v>3063</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>3253</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6" t="s">
+        <v>3072</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>2882</v>
-      </c>
-      <c r="B25" s="12">
-        <v>2008</v>
-      </c>
-      <c r="C25" s="12" t="s">
+    <row r="25" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>2603</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>2628</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>2608</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>2568</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>3079</v>
+      <c r="D25" s="4" t="s">
+        <v>2631</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>3075</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>2883</v>
+        <v>2878</v>
       </c>
       <c r="B26" s="11">
         <v>2009</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>2603</v>
+        <v>71</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>2630</v>
+        <v>2573</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>3084</v>
-      </c>
-      <c r="H26" s="4"/>
+        <v>3063</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>3253</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>3076</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>2884</v>
+        <v>2879</v>
       </c>
       <c r="B27" s="11">
         <v>2009</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>2633</v>
+        <v>2621</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>2634</v>
+        <v>2638</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>3085</v>
+        <v>3252</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>3257</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>2885</v>
+        <v>2880</v>
       </c>
       <c r="B28" s="11">
         <v>2009</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>56</v>
+        <v>2603</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>2621</v>
+        <v>2639</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>2574</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>3079</v>
+        <v>3071</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>3077</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>2886</v>
-      </c>
-      <c r="B29" s="11">
-        <v>2009</v>
-      </c>
-      <c r="C29" s="11" t="s">
+    <row r="29" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B29" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>2603</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>2639</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>2640</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>2574</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="D29" s="6" t="s">
+        <v>2720</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>2811</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>2719</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>3063</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>3254</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>3078</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>3086</v>
-      </c>
     </row>
-    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>2887</v>
+        <v>2882</v>
       </c>
       <c r="B30" s="12">
         <v>2010</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>2603</v>
+        <v>71</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>2722</v>
+        <v>2620</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>2816</v>
+        <v>985</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>2721</v>
+        <v>2576</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>3087</v>
+        <v>3252</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>3117</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>2888</v>
+        <v>2883</v>
       </c>
       <c r="B31" s="12">
         <v>2010</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>71</v>
+        <v>2603</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>2620</v>
+        <v>2726</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>985</v>
+        <v>2809</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H31" s="6"/>
+        <v>3063</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>3250</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>3079</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>2889</v>
+        <v>2884</v>
       </c>
       <c r="B32" s="12">
         <v>2010</v>
@@ -11036,102 +11769,124 @@
         <v>2603</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>2575</v>
+        <v>2568</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>3088</v>
+        <v>3252</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>3080</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>2890</v>
-      </c>
-      <c r="B33" s="12">
-        <v>2010</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>2727</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>2815</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>2568</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>3071</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>3089</v>
+    <row r="33" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>2812</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>2830</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>2837</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>3063</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>3256</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>3081</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>2891</v>
+        <v>2886</v>
       </c>
       <c r="B34" s="11">
         <v>2011</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>2835</v>
+        <v>2831</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>2843</v>
+        <v>2833</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>2842</v>
+        <v>2832</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>3090</v>
+        <v>3253</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>3199</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>2892</v>
+        <v>2887</v>
       </c>
       <c r="B35" s="11">
         <v>2011</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>2817</v>
+        <v>2603</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>2836</v>
+        <v>2660</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>2838</v>
+        <v>2641</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>2837</v>
+        <v>2574</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>3091</v>
+        <v>3252</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>3259</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>2893</v>
+        <v>2888</v>
       </c>
       <c r="B36" s="11">
         <v>2011</v>
@@ -11140,204 +11895,240 @@
         <v>2603</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>2660</v>
+        <v>2757</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>2641</v>
+        <v>2758</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>2574</v>
+        <v>2759</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>3079</v>
+        <v>3071</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>2894</v>
-      </c>
-      <c r="B37" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C37" s="11" t="s">
+    <row r="37" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B37" s="12">
+        <v>2012</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>2603</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>2759</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="6" t="s">
         <v>2760</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="E37" s="6" t="s">
         <v>2761</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>3078</v>
-      </c>
-      <c r="H37" s="4"/>
+      <c r="F37" s="6" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>3071</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6" t="s">
+        <v>3083</v>
+      </c>
     </row>
-    <row r="38" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>2895</v>
+        <v>2890</v>
       </c>
       <c r="B38" s="12">
         <v>2012</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>2603</v>
+        <v>2812</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>2762</v>
+        <v>2836</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>2763</v>
+        <v>2834</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>2612</v>
+        <v>2835</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>3078</v>
+        <v>3063</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>3092</v>
+        <v>3252</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>3084</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>2896</v>
+        <v>2891</v>
       </c>
       <c r="B39" s="12">
         <v>2012</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>2841</v>
+        <v>2844</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>2839</v>
+        <v>2846</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>2840</v>
+        <v>2845</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>3093</v>
+        <v>3252</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>3085</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>2897</v>
+        <v>2892</v>
       </c>
       <c r="B40" s="12">
         <v>2012</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>2817</v>
+        <v>71</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>2849</v>
+        <v>2644</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>2851</v>
+        <v>73</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>2850</v>
+        <v>2578</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>3078</v>
+        <v>3063</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>3094</v>
+        <v>3253</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6" t="s">
+        <v>3086</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>2898</v>
+        <v>2893</v>
       </c>
       <c r="B41" s="12">
         <v>2012</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>2644</v>
+        <v>2770</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>73</v>
+        <v>2771</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>2578</v>
+        <v>2772</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>3095</v>
+        <v>3252</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>3255</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>3087</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>2899</v>
+        <v>2894</v>
       </c>
       <c r="B42" s="12">
         <v>2012</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>56</v>
+        <v>2603</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>2772</v>
+        <v>2727</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>2773</v>
+        <v>2728</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>2774</v>
+        <v>2852</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>3096</v>
+        <v>3073</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>2900</v>
-      </c>
-      <c r="B43" s="12">
-        <v>2012</v>
-      </c>
-      <c r="C43" s="12" t="s">
+    <row r="43" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B43" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>2603</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>2729</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>2730</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>2857</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>3080</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>3079</v>
+      <c r="D43" s="4" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>2737</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>2738</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>3063</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>3088</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>2901</v>
+        <v>2896</v>
       </c>
       <c r="B44" s="11">
         <v>2013</v>
@@ -11346,228 +12137,274 @@
         <v>2603</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>2738</v>
+        <v>2649</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2739</v>
+        <v>2651</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>2740</v>
+        <v>2612</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>3097</v>
+        <v>3252</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>3261</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>3089</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>2902</v>
+        <v>2897</v>
       </c>
       <c r="B45" s="11">
         <v>2013</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2603</v>
+        <v>56</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>2649</v>
+        <v>2769</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2651</v>
+        <v>2776</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>2612</v>
+        <v>2777</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>3098</v>
+        <v>3075</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4" t="s">
+        <v>3118</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>2903</v>
+        <v>2898</v>
       </c>
       <c r="B46" s="11">
         <v>2013</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>56</v>
+        <v>2603</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>2771</v>
+        <v>2647</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>2778</v>
+        <v>2610</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>2779</v>
+        <v>2568</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>3084</v>
+        <v>3071</v>
       </c>
       <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4" t="s">
+        <v>3072</v>
+      </c>
     </row>
-    <row r="47" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>2904</v>
+        <v>2899</v>
       </c>
       <c r="B47" s="11">
         <v>2013</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2603</v>
+        <v>2812</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>2647</v>
+        <v>2830</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>2610</v>
+        <v>3047</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>2568</v>
+        <v>2829</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>3078</v>
+        <v>3063</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>3079</v>
+        <v>3252</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>3091</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>2905</v>
+        <v>2900</v>
       </c>
       <c r="B48" s="11">
         <v>2013</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2817</v>
+        <v>56</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>2835</v>
+        <v>2648</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>3054</v>
+        <v>2650</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>2834</v>
+        <v>2567</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>3100</v>
+        <v>3252</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>3119</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>2906</v>
+        <v>2901</v>
       </c>
       <c r="B49" s="11">
         <v>2013</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>56</v>
+        <v>2603</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>2648</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>2650</v>
+        <v>3049</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>2567</v>
+        <v>3048</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H49" s="4"/>
+        <v>3063</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>3119</v>
+      </c>
     </row>
-    <row r="50" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>2907</v>
+        <v>2902</v>
       </c>
       <c r="B50" s="11">
         <v>2013</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2603</v>
+        <v>56</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>2648</v>
+        <v>2773</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>3056</v>
+        <v>2774</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>3055</v>
+        <v>2775</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>3101</v>
+        <v>3073</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4" t="s">
+        <v>3092</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>2908</v>
+        <v>2903</v>
       </c>
       <c r="B51" s="11">
         <v>2013</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>56</v>
+        <v>2603</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>2775</v>
+        <v>2704</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>2776</v>
+        <v>2742</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>2777</v>
+        <v>2577</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>3080</v>
+        <v>3063</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>3102</v>
+        <v>3252</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>3093</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>2909</v>
-      </c>
-      <c r="B52" s="11">
-        <v>2013</v>
-      </c>
-      <c r="C52" s="11" t="s">
+    <row r="52" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B52" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>2603</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>2704</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="D52" s="6" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>2744</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>2577</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>3103</v>
+      <c r="F52" s="6" t="s">
+        <v>2745</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>3063</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>2910</v>
+        <v>2905</v>
       </c>
       <c r="B53" s="12">
         <v>2014</v>
@@ -11576,50 +12413,62 @@
         <v>2603</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>2745</v>
+        <v>2653</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>2746</v>
+        <v>2611</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>2747</v>
+        <v>2606</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>3079</v>
+        <v>3252</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>3259</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>2911</v>
+        <v>2906</v>
       </c>
       <c r="B54" s="12">
         <v>2014</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>2603</v>
+        <v>56</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>2653</v>
+        <v>2783</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>2611</v>
+        <v>2781</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>2606</v>
+        <v>2782</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>3079</v>
+        <v>3252</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>3120</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>2912</v>
+        <v>2907</v>
       </c>
       <c r="B55" s="12">
         <v>2014</v>
@@ -11628,73 +12477,90 @@
         <v>56</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>2785</v>
+        <v>2655</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>2783</v>
+        <v>2661</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>2784</v>
+        <v>2565</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>3085</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>2913</v>
+        <v>2908</v>
       </c>
       <c r="B56" s="12">
         <v>2014</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>56</v>
+        <v>2603</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>2655</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>2661</v>
+        <v>2741</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>2565</v>
+        <v>2583</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>3104</v>
+        <v>3252</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>3085</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>2914</v>
+        <v>2909</v>
       </c>
       <c r="B57" s="12">
         <v>2014</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>2603</v>
+        <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>2655</v>
+        <v>2787</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>2743</v>
+        <v>2788</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>2583</v>
+        <v>2789</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>3104</v>
+        <v>3071</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6" t="s">
+        <v>3094</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
       <c r="B58" s="12">
         <v>2014</v>
@@ -11703,126 +12569,154 @@
         <v>56</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>2789</v>
+        <v>2654</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>2790</v>
+        <v>2656</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>2791</v>
+        <v>2581</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>3078</v>
+        <v>3063</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>3105</v>
+        <v>3252</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>3092</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>2916</v>
+        <v>2911</v>
       </c>
       <c r="B59" s="12">
         <v>2014</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>56</v>
+        <v>2812</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>2654</v>
+        <v>2839</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>2656</v>
+        <v>2840</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>2581</v>
+        <v>2733</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>3102</v>
+        <v>3252</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>3121</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>2917</v>
+        <v>3198</v>
       </c>
       <c r="B60" s="12">
         <v>2014</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>2817</v>
+        <v>2603</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>2844</v>
+        <v>2652</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>2845</v>
+        <v>2607</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>2735</v>
+        <v>2577</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H60" s="6"/>
+        <v>3063</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>3251</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>3095</v>
+      </c>
     </row>
-    <row r="61" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>2918</v>
+        <v>2912</v>
       </c>
       <c r="B61" s="12">
         <v>2014</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>2603</v>
+        <v>56</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>2652</v>
+        <v>2657</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>2607</v>
+        <v>2658</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>2577</v>
+        <v>2582</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>3106</v>
+        <v>3252</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>3257</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>3092</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>2919</v>
-      </c>
-      <c r="B62" s="12">
-        <v>2014</v>
-      </c>
-      <c r="C62" s="12" t="s">
+    <row r="62" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B62" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>2657</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>2658</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>2582</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>3102</v>
+      <c r="D62" s="4" t="s">
+        <v>2666</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>2667</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>2585</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>3071</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>2920</v>
+        <v>2914</v>
       </c>
       <c r="B63" s="11">
         <v>2015</v>
@@ -11831,360 +12725,426 @@
         <v>56</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>2667</v>
+        <v>2663</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>3078</v>
+        <v>3063</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>3079</v>
+        <v>3252</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>3144</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="B64" s="11">
         <v>2015</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>56</v>
+        <v>2603</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>2664</v>
+        <v>2746</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>2663</v>
+        <v>2747</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>2584</v>
+        <v>2588</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>3126</v>
+        <v>3252</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>3096</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>2922</v>
+        <v>2916</v>
       </c>
       <c r="B65" s="11">
         <v>2015</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>2603</v>
+        <v>56</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>2748</v>
+        <v>2648</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>2749</v>
+        <v>2662</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>2588</v>
+        <v>2565</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>3107</v>
+        <v>3252</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>3085</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>2923</v>
+        <v>2917</v>
       </c>
       <c r="B66" s="11">
         <v>2015</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>56</v>
+        <v>2603</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>2648</v>
+        <v>2739</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>2662</v>
+        <v>2740</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>2565</v>
+        <v>2587</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>3104</v>
+        <v>3071</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4" t="s">
+        <v>3097</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>2924</v>
+        <v>2918</v>
       </c>
       <c r="B67" s="11">
         <v>2015</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2603</v>
+        <v>56</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>2741</v>
+        <v>2665</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>2742</v>
+        <v>2668</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>3078</v>
+        <v>3063</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>3108</v>
+        <v>3253</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4" t="s">
+        <v>3068</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>2925</v>
+        <v>2919</v>
       </c>
       <c r="B68" s="11">
         <v>2015</v>
       </c>
       <c r="C68" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>2659</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>2580</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>3063</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>3253</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B69" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>2665</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>2668</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>2586</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>3075</v>
+      <c r="D69" s="6" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>2577</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>3071</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6" t="s">
+        <v>3098</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>2926</v>
-      </c>
-      <c r="B69" s="11">
-        <v>2015</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>2659</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>2580</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>3079</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>2927</v>
+        <v>2921</v>
       </c>
       <c r="B70" s="12">
         <v>2016</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>56</v>
+        <v>2812</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>2669</v>
+        <v>2817</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>2670</v>
+        <v>2818</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>2577</v>
+        <v>2816</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>3078</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>3109</v>
+        <v>3071</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>2928</v>
+        <v>2922</v>
       </c>
       <c r="B71" s="12">
         <v>2016</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>2817</v>
+        <v>56</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>2822</v>
+        <v>2648</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>2823</v>
+        <v>2672</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>2821</v>
+        <v>2565</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>3078</v>
+        <v>3063</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>3079</v>
+        <v>3252</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>3085</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>2929</v>
+        <v>2923</v>
       </c>
       <c r="B72" s="12">
         <v>2016</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>56</v>
+        <v>2603</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>2648</v>
+        <v>2749</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>2672</v>
+        <v>2748</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>2565</v>
+        <v>2587</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>3104</v>
+        <v>3063</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>2930</v>
+        <v>2924</v>
       </c>
       <c r="B73" s="12">
         <v>2016</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>2603</v>
+        <v>56</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>2751</v>
+        <v>2780</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>2750</v>
+        <v>2778</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>2587</v>
+        <v>2779</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>3079</v>
+        <v>3252</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>3263</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>3099</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
-        <v>2931</v>
-      </c>
-      <c r="B74" s="12">
-        <v>2016</v>
-      </c>
-      <c r="C74" s="12" t="s">
+    <row r="74" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B74" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>2782</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>2780</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>2781</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>3110</v>
+      <c r="D74" s="4" t="s">
+        <v>2798</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>2796</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>2797</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>3063</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>3253</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4" t="s">
+        <v>3102</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>2932</v>
+        <v>2926</v>
       </c>
       <c r="B75" s="11">
         <v>2017</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>56</v>
+        <v>2812</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>2803</v>
+        <v>2848</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2801</v>
+        <v>2849</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>2802</v>
+        <v>2847</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>3071</v>
-      </c>
-      <c r="H75" s="4"/>
+        <v>3063</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>3265</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>3100</v>
+      </c>
     </row>
-    <row r="76" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>2933</v>
+        <v>2927</v>
       </c>
       <c r="B76" s="11">
         <v>2017</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>2817</v>
+        <v>56</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>2853</v>
+        <v>2682</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2854</v>
+        <v>2683</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>2852</v>
+        <v>2568</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>3111</v>
+        <v>3252</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>3103</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>2934</v>
+        <v>2928</v>
       </c>
       <c r="B77" s="11">
         <v>2017</v>
@@ -12193,22 +13153,30 @@
         <v>56</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>2682</v>
+        <v>2645</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>2683</v>
+        <v>2646</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>2568</v>
+        <v>2579</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H77" s="4"/>
+        <v>3063</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>3095</v>
+      </c>
     </row>
-    <row r="78" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>2935</v>
+        <v>2929</v>
       </c>
       <c r="B78" s="11">
         <v>2017</v>
@@ -12217,24 +13185,30 @@
         <v>56</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>2645</v>
+        <v>2676</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>2646</v>
+        <v>2677</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>2579</v>
+        <v>2589</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>3106</v>
+        <v>3252</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>3257</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>2936</v>
+        <v>2930</v>
       </c>
       <c r="B79" s="11">
         <v>2017</v>
@@ -12243,22 +13217,28 @@
         <v>56</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>2677</v>
+        <v>2679</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H79" s="4"/>
+        <v>3063</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>3253</v>
+      </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4" t="s">
+        <v>3103</v>
+      </c>
     </row>
-    <row r="80" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>2937</v>
+        <v>2931</v>
       </c>
       <c r="B80" s="11">
         <v>2017</v>
@@ -12267,24 +13247,30 @@
         <v>56</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>2678</v>
+        <v>2674</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2679</v>
+        <v>2675</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>3114</v>
+        <v>3252</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>3263</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>3101</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>2938</v>
+        <v>2932</v>
       </c>
       <c r="B81" s="11">
         <v>2017</v>
@@ -12293,24 +13279,28 @@
         <v>56</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>2674</v>
+        <v>2791</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>2675</v>
+        <v>2792</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>2588</v>
+        <v>2790</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>3112</v>
+        <v>3253</v>
+      </c>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4" t="s">
+        <v>3103</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>2939</v>
+        <v>2933</v>
       </c>
       <c r="B82" s="11">
         <v>2017</v>
@@ -12319,74 +13309,86 @@
         <v>56</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>2793</v>
+        <v>2680</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>2794</v>
+        <v>2681</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>2792</v>
+        <v>2591</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4" t="s">
+        <v>3072</v>
+      </c>
     </row>
-    <row r="83" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>2940</v>
+        <v>2934</v>
       </c>
       <c r="B83" s="11">
         <v>2017</v>
       </c>
       <c r="C83" s="11" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>2723</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>3071</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B84" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C84" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>2680</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>2681</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>2591</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>3078</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>3079</v>
+      <c r="D84" s="6" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>2691</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>2594</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>3063</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>3266</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>3103</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>2941</v>
-      </c>
-      <c r="B84" s="11">
-        <v>2017</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>2725</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>2604</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>3078</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>2942</v>
+        <v>2936</v>
       </c>
       <c r="B85" s="12">
         <v>2018</v>
@@ -12395,24 +13397,30 @@
         <v>56</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>2690</v>
+        <v>2794</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>2691</v>
+        <v>2793</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>2594</v>
+        <v>2795</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>3114</v>
+        <v>3252</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>3264</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>3187</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>2943</v>
+        <v>2937</v>
       </c>
       <c r="B86" s="12">
         <v>2018</v>
@@ -12421,46 +13429,58 @@
         <v>56</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>2799</v>
+        <v>2686</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>2798</v>
+        <v>2687</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>2800</v>
+        <v>2593</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H86" s="6"/>
+        <v>3063</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>3267</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>3103</v>
+      </c>
     </row>
-    <row r="87" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>2944</v>
+        <v>2938</v>
       </c>
       <c r="B87" s="12">
         <v>2018</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>56</v>
+        <v>2603</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>2686</v>
+        <v>2767</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>2687</v>
+        <v>2768</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>2593</v>
+        <v>2575</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6" t="s">
+        <v>3104</v>
+      </c>
     </row>
-    <row r="88" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>2945</v>
+        <v>2939</v>
       </c>
       <c r="B88" s="12">
         <v>2018</v>
@@ -12469,50 +13489,60 @@
         <v>2603</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>2769</v>
+        <v>2648</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>2770</v>
+        <v>2807</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>2575</v>
+        <v>2724</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>3078</v>
+        <v>3063</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>3115</v>
+        <v>3252</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>3105</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>2946</v>
+        <v>2940</v>
       </c>
       <c r="B89" s="12">
         <v>2018</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>2603</v>
+        <v>56</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>2648</v>
+        <v>2692</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>2812</v>
+        <v>2693</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>2726</v>
+        <v>2588</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>3116</v>
+        <v>3063</v>
+      </c>
+      <c r="H89" s="21" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6" t="s">
+        <v>3122</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>2947</v>
+        <v>2941</v>
       </c>
       <c r="B90" s="12">
         <v>2018</v>
@@ -12521,196 +13551,234 @@
         <v>56</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>2692</v>
+        <v>2684</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>2693</v>
+        <v>2685</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>2588</v>
+        <v>2592</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H90" s="6"/>
+        <v>3063</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>3268</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>3123</v>
+      </c>
     </row>
-    <row r="91" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>2948</v>
+        <v>2942</v>
       </c>
       <c r="B91" s="12">
         <v>2018</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>56</v>
+        <v>2822</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>2684</v>
+        <v>2825</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>2685</v>
+        <v>2823</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>2592</v>
+        <v>2824</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6" t="s">
+        <v>3124</v>
+      </c>
     </row>
-    <row r="92" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>2949</v>
+        <v>2943</v>
       </c>
       <c r="B92" s="12">
         <v>2018</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>2827</v>
+        <v>56</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>2830</v>
+        <v>2689</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>2828</v>
+        <v>2688</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>2829</v>
+        <v>2587</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>3078</v>
+        <v>3071</v>
       </c>
       <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6" t="s">
+        <v>3111</v>
+      </c>
     </row>
-    <row r="93" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>2950</v>
+        <v>2944</v>
       </c>
       <c r="B93" s="12">
         <v>2018</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>56</v>
+        <v>2603</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>2689</v>
+        <v>2751</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>2688</v>
+        <v>2752</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>2587</v>
+        <v>2572</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>3078</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>3125</v>
+        <v>3071</v>
+      </c>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>2951</v>
+        <v>2945</v>
       </c>
       <c r="B94" s="12">
         <v>2018</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>2603</v>
+        <v>56</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>2753</v>
+        <v>2805</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>2754</v>
+        <v>2806</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>2572</v>
+        <v>2804</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>3078</v>
+        <v>3063</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>3079</v>
+        <v>3252</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>3125</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
-        <v>2952</v>
-      </c>
-      <c r="B95" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>2810</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>2811</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>2809</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H95" s="6"/>
+    <row r="95" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B95" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>2695</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>3071</v>
+      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4" t="s">
+        <v>3126</v>
+      </c>
     </row>
-    <row r="96" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>2953</v>
+        <v>2947</v>
       </c>
       <c r="B96" s="11">
         <v>2019</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>2695</v>
+        <v>2703</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>1096</v>
+        <v>2702</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>2595</v>
+        <v>2569</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>3078</v>
-      </c>
-      <c r="H96" s="4"/>
+        <v>3063</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>3068</v>
+      </c>
     </row>
-    <row r="97" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>2954</v>
+        <v>2948</v>
       </c>
       <c r="B97" s="11">
         <v>2019</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>56</v>
+        <v>2603</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>2703</v>
+        <v>2721</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>2702</v>
+        <v>2722</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>2569</v>
+        <v>2606</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>3075</v>
+        <v>3071</v>
+      </c>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4" t="s">
+        <v>3127</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>2955</v>
+        <v>2949</v>
       </c>
       <c r="B98" s="11">
         <v>2019</v>
@@ -12719,22 +13787,26 @@
         <v>2603</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>2724</v>
+        <v>2754</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>2606</v>
+        <v>2565</v>
       </c>
       <c r="G98" s="4" t="s">
+        <v>3071</v>
+      </c>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4" t="s">
         <v>3078</v>
       </c>
-      <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>2956</v>
+        <v>2950</v>
       </c>
       <c r="B99" s="11">
         <v>2019</v>
@@ -12743,24 +13815,26 @@
         <v>2603</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>2756</v>
+        <v>2762</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>2565</v>
+        <v>2763</v>
       </c>
       <c r="G99" s="4" t="s">
+        <v>3071</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4" t="s">
         <v>3078</v>
       </c>
-      <c r="H99" s="4" t="s">
-        <v>3087</v>
-      </c>
     </row>
-    <row r="100" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>2957</v>
+        <v>2951</v>
       </c>
       <c r="B100" s="11">
         <v>2019</v>
@@ -12769,148 +13843,182 @@
         <v>2603</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>2723</v>
+        <v>2676</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>2764</v>
+        <v>2753</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>2765</v>
+        <v>2574</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>3078</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>3087</v>
+        <v>3071</v>
+      </c>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4" t="s">
+        <v>3106</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>2958</v>
+        <v>2952</v>
       </c>
       <c r="B101" s="11">
         <v>2019</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>2603</v>
+        <v>56</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>2676</v>
+        <v>2645</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>2755</v>
+        <v>2699</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>2574</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>3078</v>
+        <v>3063</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>3117</v>
+        <v>3252</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>3265</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>3092</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>2959</v>
+        <v>2953</v>
       </c>
       <c r="B102" s="11">
         <v>2019</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>56</v>
+        <v>2812</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>2645</v>
+        <v>2813</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>2699</v>
+        <v>2815</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>2574</v>
+        <v>2814</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4" t="s">
+        <v>3107</v>
+      </c>
     </row>
-    <row r="103" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>2960</v>
+        <v>2954</v>
       </c>
       <c r="B103" s="11">
         <v>2019</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>2817</v>
+        <v>2603</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>2818</v>
+        <v>2648</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>2820</v>
+        <v>2764</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>2819</v>
+        <v>2733</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>3078</v>
+        <v>3063</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>3118</v>
+        <v>3252</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>3085</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>2961</v>
+        <v>2955</v>
       </c>
       <c r="B104" s="11">
         <v>2019</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>2603</v>
+        <v>2812</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>2648</v>
+        <v>2821</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>2766</v>
+        <v>2819</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>2735</v>
+        <v>2820</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H104" s="4"/>
+        <v>3063</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>3128</v>
+      </c>
     </row>
-    <row r="105" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>2962</v>
+        <v>2956</v>
       </c>
       <c r="B105" s="11">
         <v>2019</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>2817</v>
+        <v>56</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>2826</v>
+        <v>2696</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>2824</v>
+        <v>2697</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>2825</v>
+        <v>2597</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H105" s="4"/>
+        <v>3063</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>3251</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>3129</v>
+      </c>
     </row>
-    <row r="106" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>2963</v>
+        <v>2957</v>
       </c>
       <c r="B106" s="11">
         <v>2019</v>
@@ -12919,22 +14027,30 @@
         <v>56</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>2696</v>
+        <v>2684</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>3078</v>
-      </c>
-      <c r="H106" s="4"/>
+        <v>3063</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>3265</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>3130</v>
+      </c>
     </row>
-    <row r="107" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>2964</v>
+        <v>2958</v>
       </c>
       <c r="B107" s="11">
         <v>2019</v>
@@ -12943,46 +14059,62 @@
         <v>56</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>2684</v>
+        <v>2698</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>2694</v>
+        <v>2701</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>2596</v>
+        <v>2568</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H107" s="4"/>
+        <v>3063</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>3135</v>
+      </c>
     </row>
-    <row r="108" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>2965</v>
-      </c>
-      <c r="B108" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>2698</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>2701</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>2568</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H108" s="4"/>
+    <row r="108" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B108" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>3137</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>3138</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>3139</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>3063</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>3136</v>
+      </c>
     </row>
-    <row r="109" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>2966</v>
+        <v>2960</v>
       </c>
       <c r="B109" s="12">
         <v>2020</v>
@@ -12991,72 +14123,90 @@
         <v>71</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>2796</v>
+        <v>2673</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>2797</v>
+        <v>2705</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>2795</v>
+        <v>2599</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H109" s="6"/>
+        <v>3063</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>3108</v>
+      </c>
     </row>
-    <row r="110" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>2967</v>
+        <v>2961</v>
       </c>
       <c r="B110" s="12">
         <v>2020</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>2673</v>
+        <v>2648</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>2705</v>
+        <v>2707</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>2599</v>
+        <v>2567</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H110" s="6" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J110" s="6" t="s">
         <v>3119</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>2968</v>
+        <v>2962</v>
       </c>
       <c r="B111" s="12">
         <v>2020</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>2648</v>
+        <v>2706</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>2707</v>
+        <v>1533</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>2567</v>
+        <v>2598</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6" t="s">
+        <v>3133</v>
+      </c>
     </row>
-    <row r="112" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>2969</v>
+        <v>2963</v>
       </c>
       <c r="B112" s="12">
         <v>2020</v>
@@ -13065,150 +14215,190 @@
         <v>71</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>1533</v>
+        <v>190</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>2598</v>
+        <v>2853</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>3078</v>
-      </c>
-      <c r="H112" s="6"/>
+        <v>3063</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>3269</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>3109</v>
+      </c>
     </row>
-    <row r="113" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>2970</v>
+        <v>2964</v>
       </c>
       <c r="B113" s="12">
         <v>2020</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>71</v>
+        <v>2716</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>2704</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>190</v>
+        <v>2750</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>2858</v>
+        <v>2595</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>3120</v>
+        <v>3252</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>3109</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
-        <v>2971</v>
-      </c>
-      <c r="B114" s="12">
-        <v>2020</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>2716</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>2704</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>2752</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>2595</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>3120</v>
+    <row r="114" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B114" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>2686</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>2808</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>2602</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>3063</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>3257</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>3134</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>2972</v>
+        <v>2966</v>
       </c>
       <c r="B115" s="11">
         <v>2021</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>2686</v>
+        <v>2708</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>2813</v>
+        <v>2709</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>3121</v>
+        <v>3252</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>3110</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>2973</v>
+        <v>2967</v>
       </c>
       <c r="B116" s="11">
         <v>2021</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>2708</v>
+        <v>2710</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>2709</v>
+        <v>2711</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>3122</v>
+        <v>3252</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>3257</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>3131</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>2974</v>
+        <v>2968</v>
       </c>
       <c r="B117" s="11">
         <v>2021</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>56</v>
+        <v>2716</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>2710</v>
+        <v>2698</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>2711</v>
+        <v>2765</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>2601</v>
+        <v>2766</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>3078</v>
-      </c>
-      <c r="H117" s="4"/>
+        <v>3063</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>3270</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>3110</v>
+      </c>
     </row>
-    <row r="118" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>2975</v>
+        <v>2969</v>
       </c>
       <c r="B118" s="11">
         <v>2021</v>
@@ -13220,70 +14410,55 @@
         <v>2698</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>2767</v>
+        <v>2755</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>2768</v>
+        <v>2598</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>3122</v>
+        <v>3252</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>3271</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>3072</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>2976</v>
+        <v>2970</v>
       </c>
       <c r="B119" s="11">
         <v>2021</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>2716</v>
+        <v>56</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>2698</v>
+        <v>2712</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>2598</v>
+        <v>2568</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>3123</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
-        <v>2977</v>
-      </c>
-      <c r="B120" s="11">
-        <v>2021</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>2712</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>2758</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>2568</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>3124</v>
-      </c>
-      <c r="H120" s="4"/>
+        <v>3071</v>
+      </c>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4" t="s">
+        <v>3132</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -13295,7 +14470,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14356,7 +15531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF245"/>
   <sheetViews>
-    <sheetView topLeftCell="H149" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="O182" sqref="O182"/>
     </sheetView>
   </sheetViews>
@@ -57494,7 +58669,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -57558,7 +58733,7 @@
         <v>2021</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>3046</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -57566,31 +58741,31 @@
         <v>2568</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>2983</v>
+        <v>2976</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>2984</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>2989</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>2991</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>2996</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>2998</v>
-      </c>
       <c r="L2" s="17" t="s">
-        <v>3004</v>
+        <v>2997</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>3019</v>
+        <v>3012</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>3021</v>
+        <v>3014</v>
       </c>
       <c r="R2" s="17" t="s">
+        <v>3029</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>3036</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>3043</v>
       </c>
       <c r="U2" s="18">
         <v>9</v>
@@ -57601,19 +58776,19 @@
         <v>2588</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>2979</v>
+        <v>2972</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>2988</v>
+        <v>2981</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>3012</v>
+        <v>3005</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>3022</v>
+        <v>3015</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>3027</v>
+        <v>3020</v>
       </c>
       <c r="U3" s="18">
         <v>6</v>
@@ -57632,19 +58807,19 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17" t="s">
-        <v>3014</v>
+        <v>3007</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>3018</v>
+        <v>3011</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>3020</v>
+        <v>3013</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>3028</v>
+        <v>3021</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>3031</v>
+        <v>3024</v>
       </c>
       <c r="U4" s="18">
         <v>5</v>
@@ -57659,13 +58834,13 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17" t="s">
+        <v>2985</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>2992</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>2999</v>
-      </c>
       <c r="R5" s="17" t="s">
-        <v>3032</v>
+        <v>3025</v>
       </c>
       <c r="U5" s="18">
         <v>5</v>
@@ -57676,16 +58851,16 @@
         <v>2591</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>2981</v>
+        <v>2974</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>2997</v>
+        <v>2990</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>3002</v>
+        <v>2995</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>3023</v>
+        <v>3016</v>
       </c>
       <c r="U6" s="18">
         <v>4</v>
@@ -57696,16 +58871,16 @@
         <v>2606</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>2985</v>
+        <v>2978</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>3008</v>
+        <v>3001</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>3024</v>
+        <v>3017</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>3030</v>
+        <v>3023</v>
       </c>
       <c r="U7" s="18">
         <v>4</v>
@@ -57718,16 +58893,16 @@
       <c r="E8" s="17"/>
       <c r="I8" s="17"/>
       <c r="K8" s="17" t="s">
-        <v>3001</v>
+        <v>2994</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>3007</v>
+        <v>3000</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>3011</v>
+        <v>3004</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>3015</v>
+        <v>3008</v>
       </c>
       <c r="U8" s="18">
         <v>4</v>
@@ -57744,16 +58919,16 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="L9" s="17" t="s">
+        <v>2999</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>3002</v>
+      </c>
+      <c r="N9" s="17" t="s">
         <v>3006</v>
       </c>
-      <c r="M9" s="17" t="s">
-        <v>3009</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>3013</v>
-      </c>
       <c r="O9" s="17" t="s">
-        <v>3017</v>
+        <v>3010</v>
       </c>
       <c r="U9" s="18">
         <v>4</v>
@@ -57764,13 +58939,13 @@
         <v>2567</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>2982</v>
+        <v>2975</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>3005</v>
+        <v>2998</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>3038</v>
+        <v>3031</v>
       </c>
       <c r="U10" s="18">
         <v>3</v>
@@ -57781,13 +58956,13 @@
         <v>2575</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>2990</v>
+        <v>2983</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>2995</v>
+        <v>2988</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>3025</v>
+        <v>3018</v>
       </c>
       <c r="U11" s="18">
         <v>3</v>
@@ -57798,10 +58973,10 @@
         <v>2566</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>2978</v>
+        <v>2971</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>3034</v>
+        <v>3027</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -57826,13 +59001,13 @@
       <c r="B13" s="17"/>
       <c r="D13" s="17"/>
       <c r="F13" s="17" t="s">
-        <v>2987</v>
+        <v>2980</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>3048</v>
+        <v>3041</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>3029</v>
+        <v>3022</v>
       </c>
       <c r="U13" s="18">
         <v>3</v>
@@ -57840,11 +59015,11 @@
     </row>
     <row r="14" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="B14" s="17"/>
       <c r="D14" s="17" t="s">
-        <v>2980</v>
+        <v>2973</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -57852,13 +59027,13 @@
       <c r="I14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17" t="s">
-        <v>3052</v>
+        <v>3045</v>
       </c>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="R14" s="17" t="s">
-        <v>3033</v>
+        <v>3026</v>
       </c>
       <c r="U14" s="18">
         <v>3</v>
@@ -57876,7 +59051,7 @@
       <c r="I15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17" t="s">
-        <v>3010</v>
+        <v>3003</v>
       </c>
       <c r="N15" s="17"/>
       <c r="U15" s="18">
@@ -57885,13 +59060,13 @@
     </row>
     <row r="16" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>3003</v>
+        <v>2996</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>3026</v>
+        <v>3019</v>
       </c>
       <c r="U16" s="18">
         <v>2</v>
@@ -57911,11 +59086,11 @@
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17" t="s">
-        <v>3016</v>
+        <v>3009</v>
       </c>
       <c r="P17" s="17"/>
       <c r="R17" s="17" t="s">
-        <v>3035</v>
+        <v>3028</v>
       </c>
       <c r="U17" s="18">
         <v>2</v>
@@ -57928,7 +59103,7 @@
       <c r="B18" s="17"/>
       <c r="D18" s="17"/>
       <c r="F18" s="17" t="s">
-        <v>3047</v>
+        <v>3040</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
@@ -57956,10 +59131,10 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="K19" s="17" t="s">
-        <v>3049</v>
+        <v>3042</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>3051</v>
+        <v>3044</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
@@ -57979,7 +59154,7 @@
       <c r="B20" s="17"/>
       <c r="D20" s="17"/>
       <c r="F20" s="17" t="s">
-        <v>2989</v>
+        <v>2982</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -57990,7 +59165,7 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="R20" s="17" t="s">
-        <v>2954</v>
+        <v>2947</v>
       </c>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
@@ -58015,10 +59190,10 @@
       <c r="P21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15" t="s">
-        <v>3037</v>
+        <v>3030</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>2973</v>
+        <v>2966</v>
       </c>
       <c r="U21" s="16">
         <v>2</v>
@@ -58033,10 +59208,10 @@
       <c r="F22" s="15"/>
       <c r="Q22" s="15"/>
       <c r="S22" s="15" t="s">
-        <v>3039</v>
+        <v>3032</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>2976</v>
+        <v>2969</v>
       </c>
       <c r="U22" s="16">
         <v>2</v>
@@ -58053,10 +59228,10 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="R23" s="15" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
       <c r="S23" s="15" t="s">
-        <v>3041</v>
+        <v>3034</v>
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="16">
@@ -58065,51 +59240,51 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>3057</v>
+        <v>3050</v>
       </c>
       <c r="B24" s="1"/>
       <c r="E24" t="s">
-        <v>2866</v>
+        <v>2861</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>2986</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>3059</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>3062</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>2993</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>3000</v>
-      </c>
       <c r="K24" s="1" t="s">
-        <v>3064</v>
+        <v>3057</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>3050</v>
+        <v>3043</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>3053</v>
+        <v>3046</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>3065</v>
+        <v>3058</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
-        <v>3045</v>
+        <v>3038</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>3067</v>
+        <v>3060</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>3044</v>
+        <v>3037</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>3068</v>
+        <v>3061</v>
       </c>
       <c r="U24">
         <v>34</v>
@@ -58117,34 +59292,34 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>3058</v>
+        <v>3051</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>2984</v>
+        <v>2977</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>3060</v>
+        <v>3053</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>3061</v>
+        <v>3054</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>2994</v>
+        <v>2987</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>3063</v>
+        <v>3056</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>3066</v>
+        <v>3059</v>
       </c>
       <c r="Q25" t="s">
-        <v>2949</v>
+        <v>2942</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>3040</v>
+        <v>3033</v>
       </c>
       <c r="T25" t="s">
-        <v>2975</v>
+        <v>2968</v>
       </c>
       <c r="U25">
         <v>11</v>
@@ -58158,4 +59333,1124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D792ED2-B851-42A6-8ED6-39DB511A184F}">
+  <dimension ref="A1:P65"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>3171</v>
+      </c>
+      <c r="C1" s="20">
+        <v>123</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>3172</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="J1" s="3" t="s">
+        <v>3186</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>3194</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>3195</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C2" s="5">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>3182</v>
+      </c>
+      <c r="K2">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>76</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>3201</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C3" s="5">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="K3">
+        <v>24</v>
+      </c>
+      <c r="L3">
+        <v>56</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3189</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3190</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C6" s="5">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3191</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3184</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>3068</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3192</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3193</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3196</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>44</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>3107</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="P20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>3209</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>3153</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>3154</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="P28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>3230</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="P35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>3225</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="P44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>3163</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>3121</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>3117</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C65">
+    <sortCondition descending="1" ref="C1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>